--- a/Итоги сессии лето 2024.xlsx
+++ b/Итоги сессии лето 2024.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NNSafonova\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SibNout2023\Downloads\KipFin_Lab_2023-24_Git0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19170" windowHeight="8510" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ОПП.01 Математика" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Теория вероятностией" sheetId="3" r:id="rId7"/>
     <sheet name="ЕН.01 Математика ОИБАС" sheetId="4" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -267,7 +267,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -421,6 +421,11 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -430,20 +435,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -764,15 +764,15 @@
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -816,8 +816,8 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -861,8 +861,8 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -904,8 +904,8 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -947,8 +947,8 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -990,8 +990,8 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1030,8 +1030,8 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1070,8 +1070,8 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -1113,8 +1113,8 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1156,8 +1156,8 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -1199,8 +1199,8 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1242,8 +1242,8 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -1283,8 +1283,8 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1323,8 +1323,8 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1363,8 +1363,8 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1404,8 +1404,8 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1445,8 +1445,8 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1702,32 +1702,32 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="28.26953125" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" customWidth="1"/>
-    <col min="12" max="12" width="40.140625" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" customWidth="1"/>
+    <col min="11" max="11" width="11.7265625" customWidth="1"/>
+    <col min="12" max="12" width="40.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
         <v>0</v>
       </c>
@@ -1737,22 +1737,22 @@
       <c r="C4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="27" t="s">
         <v>69</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -1768,7 +1768,7 @@
       <c r="N4" s="22"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="33" t="s">
         <v>10</v>
       </c>
@@ -1797,17 +1797,17 @@
         <f>(D5*5+E5*4+F5*3+G5*2)/C5</f>
         <v>4.0344827586206895</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="28">
         <f>(D5+E5)/C5*100</f>
         <v>79.310344827586206</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="28">
         <f>(D5+E5+F5)/C5*100</f>
         <v>100</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="33"/>
       <c r="B6" s="1" t="s">
         <v>71</v>
@@ -1834,17 +1834,17 @@
         <f t="shared" ref="I6:I19" si="0">(D6*5+E6*4+F6*3+G6*2)/C6</f>
         <v>4.1428571428571432</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="28">
         <f t="shared" ref="J6:J20" si="1">(D6+E6)/C6*100</f>
         <v>78.571428571428569</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="28">
         <f t="shared" ref="K6:K20" si="2">(D6+E6+F6)/C6*100</f>
         <v>100</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="33"/>
       <c r="B7" s="1" t="s">
         <v>72</v>
@@ -1871,17 +1871,17 @@
         <f t="shared" si="0"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="28">
         <f t="shared" si="1"/>
         <v>89.285714285714292</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="33"/>
       <c r="B8" s="1" t="s">
         <v>26</v>
@@ -1908,17 +1908,17 @@
         <f t="shared" si="0"/>
         <v>4.333333333333333</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="28">
         <f t="shared" si="1"/>
         <v>96.296296296296291</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="33"/>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -1945,17 +1945,17 @@
         <f t="shared" si="0"/>
         <v>3.8571428571428572</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="28">
         <f t="shared" si="1"/>
         <v>67.857142857142861</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1982,11 +1982,11 @@
         <f t="shared" si="0"/>
         <v>3.6071428571428572</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="28">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="28">
         <f t="shared" si="2"/>
         <v>96.428571428571431</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="33"/>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2021,17 +2021,17 @@
         <f t="shared" si="0"/>
         <v>4.1724137931034484</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="28">
         <f t="shared" si="1"/>
         <v>82.758620689655174</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
       <c r="B12" s="1" t="s">
         <v>30</v>
@@ -2058,17 +2058,17 @@
         <f t="shared" si="0"/>
         <v>4.068965517241379</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="28">
         <f t="shared" si="1"/>
         <v>68.965517241379317</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
       <c r="B13" s="1" t="s">
         <v>31</v>
@@ -2095,17 +2095,17 @@
         <f t="shared" si="0"/>
         <v>4.1111111111111107</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="28">
         <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="33"/>
       <c r="B14" s="1" t="s">
         <v>35</v>
@@ -2132,17 +2132,17 @@
         <f t="shared" si="0"/>
         <v>4.75</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="28">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="33"/>
       <c r="B15" s="1" t="s">
         <v>32</v>
@@ -2169,17 +2169,17 @@
         <f t="shared" si="0"/>
         <v>3.9655172413793105</v>
       </c>
-      <c r="J15" s="34">
+      <c r="J15" s="28">
         <f t="shared" si="1"/>
         <v>75.862068965517238</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="33"/>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -2206,17 +2206,17 @@
         <f t="shared" si="0"/>
         <v>3.6206896551724137</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="28">
         <f t="shared" si="1"/>
         <v>48.275862068965516</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="33"/>
       <c r="B17" s="1" t="s">
         <v>34</v>
@@ -2243,17 +2243,17 @@
         <f t="shared" si="0"/>
         <v>3.6666666666666665</v>
       </c>
-      <c r="J17" s="34">
+      <c r="J17" s="28">
         <f t="shared" si="1"/>
         <v>40.74074074074074</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="33"/>
       <c r="B18" s="1" t="s">
         <v>36</v>
@@ -2280,17 +2280,17 @@
         <f t="shared" si="0"/>
         <v>3.7586206896551726</v>
       </c>
-      <c r="J18" s="34">
+      <c r="J18" s="28">
         <f t="shared" si="1"/>
         <v>62.068965517241381</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="33"/>
       <c r="B19" s="1" t="s">
         <v>74</v>
@@ -2317,17 +2317,17 @@
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="28">
         <f t="shared" si="1"/>
         <v>40.909090909090914</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="28">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="33"/>
       <c r="B20" s="17" t="s">
         <v>75</v>
@@ -2360,11 +2360,11 @@
         <f>(D20*5+E20*4+F20*3+G20*2)/C20</f>
         <v>3.9976019184652278</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="29">
         <f t="shared" si="1"/>
         <v>70.983213429256594</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K20" s="29">
         <f t="shared" si="2"/>
         <v>99.760191846522787</v>
       </c>
@@ -2374,7 +2374,7 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -2421,15 +2421,15 @@
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -2473,8 +2473,8 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2518,8 +2518,8 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -2561,8 +2561,8 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -2604,8 +2604,8 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -2647,8 +2647,8 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -2688,8 +2688,8 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -2729,8 +2729,8 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -2772,8 +2772,8 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2815,8 +2815,8 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -2859,8 +2859,8 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -2902,8 +2902,8 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2943,8 +2943,8 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -2983,8 +2983,8 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3023,8 +3023,8 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -3063,8 +3063,8 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -3104,8 +3104,8 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3144,7 +3144,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
@@ -3190,7 +3190,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -3360,15 +3360,15 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -3412,8 +3412,8 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>55</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3457,8 +3457,8 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -3500,8 +3500,8 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -3543,8 +3543,8 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -3586,8 +3586,8 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -3626,8 +3626,8 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -3666,8 +3666,8 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -3710,8 +3710,8 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3754,8 +3754,8 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -3798,8 +3798,8 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -3842,8 +3842,8 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3883,8 +3883,8 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3924,8 +3924,8 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -3965,8 +3965,8 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -4006,8 +4006,8 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -4047,8 +4047,8 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
@@ -4134,7 +4134,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -4304,15 +4304,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="13" max="13" width="30.85546875" customWidth="1"/>
-    <col min="14" max="14" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
+    <col min="13" max="13" width="30.81640625" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
@@ -4356,8 +4356,8 @@
       <c r="O2" s="21"/>
       <c r="P2" s="21"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" s="30" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4401,8 +4401,8 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
@@ -4444,8 +4444,8 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
@@ -4487,8 +4487,8 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
@@ -4530,8 +4530,8 @@
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -4570,8 +4570,8 @@
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -4610,8 +4610,8 @@
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -4654,8 +4654,8 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -4698,8 +4698,8 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
@@ -4742,8 +4742,8 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" s="31"/>
       <c r="B12" s="1" t="s">
         <v>31</v>
       </c>
@@ -4785,8 +4785,8 @@
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" s="31"/>
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -4826,8 +4826,8 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" s="31"/>
       <c r="B14" s="1" t="s">
         <v>32</v>
       </c>
@@ -4867,8 +4867,8 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" s="31"/>
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -4908,8 +4908,8 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" s="31"/>
       <c r="B16" s="1" t="s">
         <v>34</v>
       </c>
@@ -4949,8 +4949,8 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="31"/>
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
@@ -4989,8 +4989,8 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="32"/>
       <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
@@ -5030,7 +5030,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B19" s="23" t="s">
         <v>8</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
       <c r="M19" s="23"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
@@ -5242,25 +5242,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="13" max="13" width="37.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="13" max="13" width="37.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C1" s="8"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5301,8 +5301,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -5346,8 +5346,8 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+    <row r="5" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
       <c r="B5" s="1" t="s">
         <v>42</v>
       </c>
@@ -5387,8 +5387,8 @@
       </c>
       <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+    <row r="6" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
       <c r="B6" s="1" t="s">
         <v>43</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" ref="J5:J11" si="3">((E6*$E$3)+(F6*$F$3)+(G6*$G$3)+(H6*$H$3))/D6</f>
+        <f t="shared" ref="J6:J11" si="3">((E6*$E$3)+(F6*$F$3)+(G6*$G$3)+(H6*$H$3))/D6</f>
         <v>4.4444444444444446</v>
       </c>
       <c r="K6" s="3">
@@ -5428,8 +5428,8 @@
       </c>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+    <row r="7" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
       <c r="B7" s="1" t="s">
         <v>44</v>
       </c>
@@ -5469,8 +5469,8 @@
       </c>
       <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+    <row r="8" spans="1:13" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
       <c r="B8" s="1" t="s">
         <v>45</v>
       </c>
@@ -5510,8 +5510,8 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
       <c r="B9" s="1" t="s">
         <v>46</v>
       </c>
@@ -5551,8 +5551,8 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
@@ -5594,8 +5594,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="31"/>
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
@@ -5635,8 +5635,8 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="32"/>
       <c r="B12" s="5" t="s">
         <v>8</v>
       </c>
@@ -5694,23 +5694,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="13" max="13" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="27.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -5752,8 +5752,8 @@
       </c>
       <c r="N3" s="12"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="34" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -5766,13 +5766,13 @@
         <v>30</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -5782,19 +5782,19 @@
       </c>
       <c r="J4" s="10">
         <f>((E4*$E$3)+(F4*$F$3)+(G4*$G$3)+(H4*$H$3))/D4</f>
-        <v>4.1333333333333337</v>
+        <v>4.4333333333333336</v>
       </c>
       <c r="K4" s="11">
         <f>((E4+F4)/C4)</f>
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="L4" s="11">
         <f t="shared" ref="L4:L11" si="0">(E4+F4+G4)/C4</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="34"/>
       <c r="B5" t="s">
         <v>42</v>
       </c>
@@ -5808,10 +5808,10 @@
         <v>18</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -5821,19 +5821,19 @@
       </c>
       <c r="J5" s="10">
         <f t="shared" ref="J5:J11" si="1">((E5*$E$3)+(F5*$F$3)+(G5*$G$3)+(H5*$H$3))/D5</f>
-        <v>4.333333333333333</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" ref="K5:K11" si="2">(E5+F5)/C5</f>
-        <v>0.73333333333333328</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="30"/>
+        <v>0.93333333333333335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="34"/>
       <c r="B6" t="s">
         <v>43</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>27</v>
       </c>
       <c r="E6">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5860,19 +5860,19 @@
       </c>
       <c r="J6" s="10">
         <f t="shared" si="1"/>
-        <v>4.1111111111111107</v>
+        <v>4.7777777777777777</v>
       </c>
       <c r="K6" s="11">
         <f t="shared" si="2"/>
-        <v>0.62962962962962965</v>
+        <v>0.92592592592592593</v>
       </c>
       <c r="L6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="34"/>
       <c r="B7" t="s">
         <v>44</v>
       </c>
@@ -5883,13 +5883,13 @@
         <v>28</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -5899,19 +5899,19 @@
       </c>
       <c r="J7" s="10">
         <f t="shared" si="1"/>
-        <v>4.0714285714285712</v>
+        <v>4.8214285714285712</v>
       </c>
       <c r="K7" s="11">
         <f t="shared" si="2"/>
-        <v>0.65517241379310343</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="L7" s="11">
         <f t="shared" si="0"/>
         <v>0.96551724137931039</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="34"/>
       <c r="B8" t="s">
         <v>45</v>
       </c>
@@ -5922,10 +5922,10 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G8">
         <v>2</v>
@@ -5938,19 +5938,19 @@
       </c>
       <c r="J8" s="10">
         <f t="shared" si="1"/>
-        <v>4.5555555555555554</v>
+        <v>5.1111111111111107</v>
       </c>
       <c r="K8" s="11">
         <f t="shared" si="2"/>
-        <v>0.92592592592592593</v>
+        <v>1</v>
       </c>
       <c r="L8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="30"/>
+        <v>1.0740740740740742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="34"/>
       <c r="B9" t="s">
         <v>46</v>
       </c>
@@ -5959,38 +5959,38 @@
       </c>
       <c r="D9">
         <f t="shared" ref="D9:D11" si="3">SUM(E9:H9)</f>
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E9">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9" s="10">
         <f t="shared" si="1"/>
-        <v>4.291666666666667</v>
+        <v>4.8928571428571432</v>
       </c>
       <c r="K9" s="11">
         <f t="shared" si="2"/>
-        <v>0.72413793103448276</v>
+        <v>0.93103448275862066</v>
       </c>
       <c r="L9" s="11">
         <f t="shared" si="0"/>
-        <v>0.82758620689655171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="30"/>
+        <v>0.96551724137931039</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A10" s="34"/>
       <c r="B10" t="s">
         <v>47</v>
       </c>
@@ -5999,38 +5999,38 @@
       </c>
       <c r="D10">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F10">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J10" s="10">
         <f t="shared" si="1"/>
-        <v>4.291666666666667</v>
+        <v>4.4827586206896548</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="2"/>
-        <v>0.72413793103448276</v>
+        <v>0.82758620689655171</v>
       </c>
       <c r="L10" s="11">
         <f>(E10+F10+G10)/C10</f>
-        <v>0.82758620689655171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="34"/>
       <c r="B11" t="s">
         <v>48</v>
       </c>
@@ -6039,38 +6039,38 @@
       </c>
       <c r="D11">
         <f t="shared" si="3"/>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10">
         <f t="shared" si="1"/>
-        <v>4.291666666666667</v>
+        <v>4.6896551724137927</v>
       </c>
       <c r="K11" s="11">
         <f t="shared" si="2"/>
-        <v>0.72413793103448276</v>
+        <v>0.96551724137931039</v>
       </c>
       <c r="L11" s="11">
         <f t="shared" si="0"/>
-        <v>0.82758620689655171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="30"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="34"/>
       <c r="B12" s="12" t="s">
         <v>8</v>
       </c>
@@ -6080,19 +6080,19 @@
       </c>
       <c r="D12" s="12">
         <f t="shared" si="4"/>
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="E12" s="12">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="F12" s="12">
         <f t="shared" si="4"/>
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="G12" s="12">
         <f t="shared" si="4"/>
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="4"/>
@@ -6100,19 +6100,19 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J12" s="13">
         <f>SUM(J4:J11)/8</f>
-        <v>4.2599702380952378</v>
+        <v>4.6719485495347559</v>
       </c>
       <c r="K12" s="14">
         <f>SUM(K4:K11)/8</f>
-        <v>0.72705938697318018</v>
+        <v>0.90597062579821197</v>
       </c>
       <c r="L12" s="14">
         <f>SUM(L4:L11)/8</f>
-        <v>0.93103448275862066</v>
+        <v>0.99230523627075362</v>
       </c>
     </row>
   </sheetData>
@@ -6131,19 +6131,19 @@
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="13" max="13" width="46.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" customWidth="1"/>
+    <col min="13" max="13" width="46.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
@@ -6186,8 +6186,8 @@
       <c r="N3" s="21"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -6229,8 +6229,8 @@
       </c>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="31"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="35"/>
       <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
@@ -6270,8 +6270,8 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="35"/>
       <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
@@ -6311,8 +6311,8 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="31"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="35"/>
       <c r="B7" s="1" t="s">
         <v>53</v>
       </c>
@@ -6352,8 +6352,8 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="31"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="35"/>
       <c r="B8" s="1" t="s">
         <v>54</v>
       </c>
@@ -6393,8 +6393,8 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="31"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="35"/>
       <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
